--- a/letterchoice.xlsx
+++ b/letterchoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\uni\PhD\Tasks\Probabilistic Learning Pavlovia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D65BB93-8727-42F9-9433-FF5E2EE03D51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99480E2F-CD0E-4FDE-BE2E-6707B19C7DC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>letterset</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>hiragana31.xlsx</t>
+  </si>
+  <si>
+    <t>letterset3</t>
+  </si>
+  <si>
+    <t>hiragana12.xlsx</t>
+  </si>
+  <si>
+    <t>hiragana22.xlsx</t>
+  </si>
+  <si>
+    <t>hiragana32.xlsx</t>
   </si>
 </sst>
 </file>
@@ -366,48 +378,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A5:B7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
